--- a/Proj_Data_CSV.xlsx
+++ b/Proj_Data_CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evan\Documents\_UNIVERSITY\Schoolwork\DBSystems\Project\DBSysProj3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ACFAC4-9C34-4562-BC65-D13C92575A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75153BF9-3B3D-41FF-87D2-00875B7262CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="275">
   <si>
     <t>ISBN</t>
   </si>
@@ -852,6 +852,12 @@
   </si>
   <si>
     <t>INSERT INTO Stores VALUES(</t>
+  </si>
+  <si>
+    <t>17-19er</t>
+  </si>
+  <si>
+    <t>19ep</t>
   </si>
 </sst>
 </file>
@@ -1733,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P109"/>
+  <dimension ref="A1:U109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M100" sqref="M100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1753,7 @@
     <col min="14" max="14" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1788,7 +1794,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>782140661</v>
       </c>
@@ -1827,13 +1833,13 @@
       </c>
       <c r="O2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>72227885</v>
       </c>
@@ -1872,13 +1878,13 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" ca="1" si="0">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>471200247</v>
       </c>
@@ -1917,13 +1923,21 @@
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P4" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <f ca="1">RANDBETWEEN(1,20)</f>
+        <v>16</v>
+      </c>
+      <c r="S4">
+        <f ca="1">RANDBETWEEN(1,20)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>72227710</v>
       </c>
@@ -1962,13 +1976,21 @@
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f t="shared" ref="R5:S18" ca="1" si="1">RANDBETWEEN(1,20)</f>
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1558605525</v>
       </c>
@@ -2007,13 +2029,21 @@
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P6" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>972263608</v>
       </c>
@@ -2052,13 +2082,21 @@
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>201615762</v>
       </c>
@@ -2097,13 +2135,21 @@
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>782140114</v>
       </c>
@@ -2147,8 +2193,16 @@
       <c r="P9" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>321125169</v>
       </c>
@@ -2187,13 +2241,21 @@
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>805317554</v>
       </c>
@@ -2232,13 +2294,21 @@
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1861004486</v>
       </c>
@@ -2282,8 +2352,19 @@
       <c r="P12" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>735712123</v>
       </c>
@@ -2327,8 +2408,16 @@
       <c r="P13" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>425188361</v>
       </c>
@@ -2367,13 +2456,21 @@
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>142001740</v>
       </c>
@@ -2412,13 +2509,21 @@
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="S15">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>596004478</v>
       </c>
@@ -2457,13 +2562,21 @@
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>71414339</v>
       </c>
@@ -2499,13 +2612,21 @@
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P17" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>312311354</v>
       </c>
@@ -2541,13 +2662,21 @@
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>312287941</v>
       </c>
@@ -2589,7 +2718,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>312243022</v>
       </c>
@@ -2631,7 +2760,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>609610570</v>
       </c>
@@ -2673,7 +2802,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>316602051</v>
       </c>
@@ -2709,13 +2838,13 @@
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P22" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>743222008</v>
       </c>
@@ -2751,13 +2880,13 @@
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P23" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>66214750</v>
       </c>
@@ -2782,6 +2911,9 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
+      <c r="K24">
+        <v>23</v>
+      </c>
       <c r="L24">
         <v>782140114</v>
       </c>
@@ -2793,13 +2925,13 @@
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P24" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>787960756</v>
       </c>
@@ -2835,13 +2967,13 @@
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P25" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>743206061</v>
       </c>
@@ -2877,13 +3009,13 @@
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P26" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1590520734</v>
       </c>
@@ -2925,7 +3057,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>60934417</v>
       </c>
@@ -2961,13 +3093,13 @@
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P28" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>440237556</v>
       </c>
@@ -3009,7 +3141,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>373272839</v>
       </c>
@@ -3051,7 +3183,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>670031518</v>
       </c>
@@ -3087,13 +3219,13 @@
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>738206679</v>
       </c>
@@ -3129,7 +3261,7 @@
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P32" t="s">
         <v>271</v>
@@ -3171,7 +3303,7 @@
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P33" t="s">
         <v>271</v>
@@ -3213,7 +3345,7 @@
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34" t="s">
         <v>271</v>
@@ -3297,7 +3429,7 @@
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P36" t="s">
         <v>271</v>
@@ -3339,7 +3471,7 @@
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P37" t="s">
         <v>271</v>
@@ -3507,7 +3639,7 @@
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P41" t="s">
         <v>271</v>
@@ -3549,7 +3681,7 @@
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P42" t="s">
         <v>271</v>
@@ -3591,7 +3723,7 @@
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P43" t="s">
         <v>271</v>
@@ -3633,7 +3765,7 @@
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P44" t="s">
         <v>271</v>
@@ -3759,7 +3891,7 @@
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P47" t="s">
         <v>271</v>
@@ -3843,7 +3975,7 @@
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P49" t="s">
         <v>271</v>
@@ -3885,7 +4017,7 @@
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P50" t="s">
         <v>271</v>
@@ -3927,7 +4059,7 @@
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P51" t="s">
         <v>271</v>
@@ -3958,6 +4090,9 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
+      <c r="K52" t="s">
+        <v>273</v>
+      </c>
       <c r="L52">
         <v>865659982</v>
       </c>
@@ -4011,7 +4146,7 @@
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P53" t="s">
         <v>271</v>
@@ -4137,7 +4272,7 @@
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P56" t="s">
         <v>271</v>
@@ -4179,7 +4314,7 @@
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P57" t="s">
         <v>271</v>
@@ -4221,7 +4356,7 @@
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P58" t="s">
         <v>271</v>
@@ -4252,6 +4387,9 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
+      <c r="K59" t="s">
+        <v>274</v>
+      </c>
       <c r="L59">
         <v>743244249</v>
       </c>
@@ -4305,7 +4443,7 @@
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P60" t="s">
         <v>271</v>
@@ -4347,7 +4485,7 @@
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P61" t="s">
         <v>271</v>
@@ -4389,7 +4527,7 @@
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P62" t="s">
         <v>271</v>
@@ -4515,7 +4653,7 @@
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P65" t="s">
         <v>271</v>
@@ -4557,7 +4695,7 @@
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P66" t="s">
         <v>271</v>
@@ -4598,7 +4736,7 @@
         <v>393318486</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O109" ca="1" si="1">RANDBETWEEN(1,3)</f>
+        <f t="shared" ref="O67:O109" ca="1" si="2">RANDBETWEEN(1,3)</f>
         <v>3</v>
       </c>
       <c r="P67" t="s">
@@ -4640,8 +4778,8 @@
         <v>60958332</v>
       </c>
       <c r="O68">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="P68" t="s">
         <v>271</v>
@@ -4682,7 +4820,7 @@
         <v>60958405</v>
       </c>
       <c r="O69">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="P69" t="s">
@@ -4724,8 +4862,8 @@
         <v>393319407</v>
       </c>
       <c r="O70">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="P70" t="s">
         <v>271</v>
@@ -4766,8 +4904,8 @@
         <v>197</v>
       </c>
       <c r="O71">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="P71" t="s">
         <v>271</v>
@@ -4808,8 +4946,8 @@
         <v>446608955</v>
       </c>
       <c r="O72">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="P72" t="s">
         <v>271</v>
@@ -4850,8 +4988,8 @@
         <v>446676098</v>
       </c>
       <c r="O73">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="P73" t="s">
         <v>271</v>
@@ -4892,8 +5030,8 @@
         <v>446606812</v>
       </c>
       <c r="O74">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="P74" t="s">
         <v>271</v>
@@ -4934,8 +5072,8 @@
         <v>262521415</v>
       </c>
       <c r="O75">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="P75" t="s">
         <v>271</v>
@@ -4976,8 +5114,8 @@
         <v>262232197</v>
       </c>
       <c r="O76">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="P76" t="s">
         <v>271</v>
@@ -5018,7 +5156,7 @@
         <v>324113641</v>
       </c>
       <c r="O77">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="P77" t="s">
@@ -5060,8 +5198,8 @@
         <v>471391123</v>
       </c>
       <c r="O78">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="P78" t="s">
         <v>271</v>
@@ -5092,6 +5230,9 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
+      <c r="K79">
+        <v>16</v>
+      </c>
       <c r="L79">
         <v>446608955</v>
       </c>
@@ -5102,8 +5243,8 @@
         <v>130998516</v>
       </c>
       <c r="O79">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="P79" t="s">
         <v>271</v>
@@ -5144,7 +5285,7 @@
         <v>1565924916</v>
       </c>
       <c r="O80">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="P80" t="s">
@@ -5186,7 +5327,7 @@
         <v>735712360</v>
       </c>
       <c r="O81">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="P81" t="s">
@@ -5228,8 +5369,8 @@
         <v>735712379</v>
       </c>
       <c r="O82">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="P82" t="s">
         <v>271</v>
@@ -5270,8 +5411,8 @@
         <v>735713170</v>
       </c>
       <c r="O83">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="P83" t="s">
         <v>271</v>
@@ -5312,8 +5453,8 @@
         <v>1558606432</v>
       </c>
       <c r="O84">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="P84" t="s">
         <v>271</v>
@@ -5354,8 +5495,8 @@
         <v>72222743</v>
       </c>
       <c r="O85">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="P85" t="s">
         <v>271</v>
@@ -5396,8 +5537,8 @@
         <v>345409469</v>
       </c>
       <c r="O86">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="P86" t="s">
         <v>271</v>
@@ -5438,8 +5579,8 @@
         <v>375508325</v>
       </c>
       <c r="O87">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="P87" t="s">
         <v>271</v>
@@ -5470,6 +5611,9 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
+      <c r="K88">
+        <v>21</v>
+      </c>
       <c r="L88">
         <v>735712360</v>
       </c>
@@ -5480,8 +5624,8 @@
         <v>345336895</v>
       </c>
       <c r="O88">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="P88" t="s">
         <v>271</v>
@@ -5522,8 +5666,8 @@
         <v>671004107</v>
       </c>
       <c r="O89">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="P89" t="s">
         <v>271</v>
@@ -5564,8 +5708,8 @@
         <v>345376595</v>
       </c>
       <c r="O90">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="P90" t="s">
         <v>271</v>
@@ -5606,8 +5750,8 @@
         <v>316666343</v>
       </c>
       <c r="O91">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="P91" t="s">
         <v>271</v>
@@ -5648,8 +5792,8 @@
         <v>316096199</v>
       </c>
       <c r="O92">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="P92" t="s">
         <v>271</v>
@@ -5690,8 +5834,8 @@
         <v>237</v>
       </c>
       <c r="O93">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="P93" t="s">
         <v>271</v>
@@ -5732,7 +5876,7 @@
         <v>385494246</v>
       </c>
       <c r="O94">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="P94" t="s">
@@ -5774,8 +5918,8 @@
         <v>385494327</v>
       </c>
       <c r="O95">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="P95" t="s">
         <v>271</v>
@@ -5806,6 +5950,9 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
+      <c r="K96">
+        <v>18</v>
+      </c>
       <c r="L96">
         <v>316666343</v>
       </c>
@@ -5816,7 +5963,7 @@
         <v>385494149</v>
       </c>
       <c r="O96">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="P96" t="s">
@@ -5858,8 +6005,8 @@
         <v>399149848</v>
       </c>
       <c r="O97">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="P97" t="s">
         <v>271</v>
@@ -5900,8 +6047,8 @@
         <v>373218192</v>
       </c>
       <c r="O98">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="P98" t="s">
         <v>271</v>
@@ -5942,7 +6089,7 @@
         <v>373218257</v>
       </c>
       <c r="O99">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="P99" t="s">
@@ -5984,7 +6131,7 @@
         <v>399149392</v>
       </c>
       <c r="O100">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="P100" t="s">
@@ -6026,7 +6173,7 @@
         <v>1561584029</v>
       </c>
       <c r="O101">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="P101" t="s">
@@ -6068,7 +6215,7 @@
         <v>1579902944</v>
       </c>
       <c r="O102">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="P102" t="s">
@@ -6100,6 +6247,9 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
+      <c r="K103">
+        <v>22</v>
+      </c>
       <c r="L103">
         <v>399149392</v>
       </c>
@@ -6110,8 +6260,8 @@
         <v>1561586196</v>
       </c>
       <c r="O103">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="P103" t="s">
         <v>271</v>
@@ -6152,8 +6302,8 @@
         <v>61092177</v>
       </c>
       <c r="O104">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="P104" t="s">
         <v>271</v>
@@ -6194,7 +6344,7 @@
         <v>60502935</v>
       </c>
       <c r="O105">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="P105" t="s">
@@ -6236,8 +6386,8 @@
         <v>61020656</v>
       </c>
       <c r="O106">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="P106" t="s">
         <v>271</v>
@@ -6278,8 +6428,8 @@
         <v>60855925</v>
       </c>
       <c r="O107">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="P107" t="s">
         <v>271</v>
@@ -6320,7 +6470,7 @@
         <v>61020648</v>
       </c>
       <c r="O108">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="P108" t="s">
@@ -6362,8 +6512,8 @@
         <v>61161721</v>
       </c>
       <c r="O109">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="P109" t="s">
         <v>271</v>
@@ -6374,99 +6524,6 @@
     <sortCondition ref="K2:K109"/>
   </sortState>
   <mergeCells count="108">
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="H109:J109"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H13:J13"/>
@@ -6482,6 +6539,99 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="H106:J106"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>

--- a/Proj_Data_CSV.xlsx
+++ b/Proj_Data_CSV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evan\Documents\_UNIVERSITY\Schoolwork\DBSystems\Project\DBSysProj3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75153BF9-3B3D-41FF-87D2-00875B7262CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FC55FD-7B8C-4CE0-AFBC-5FB5C997DD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1741,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M100" sqref="M100"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,18 +1923,18 @@
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
         <v>271</v>
       </c>
       <c r="R4">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S4">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1983,11 +1983,11 @@
       </c>
       <c r="R5">
         <f t="shared" ref="R5:S18" ca="1" si="1">RANDBETWEEN(1,20)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -2029,18 +2029,18 @@
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P6" t="s">
         <v>271</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -2089,11 +2089,11 @@
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -2188,18 +2188,18 @@
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" t="s">
         <v>271</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -2241,18 +2241,18 @@
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P10" t="s">
         <v>271</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2301,11 +2301,11 @@
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2347,18 +2347,18 @@
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" t="s">
         <v>271</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U12">
         <v>5</v>
@@ -2410,11 +2410,11 @@
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2456,18 +2456,18 @@
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P14" t="s">
         <v>271</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2509,18 +2509,18 @@
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" t="s">
         <v>271</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2562,18 +2562,18 @@
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16" t="s">
         <v>271</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -2619,11 +2619,11 @@
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2662,18 +2662,18 @@
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P18" t="s">
         <v>271</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19" t="s">
         <v>271</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P21" t="s">
         <v>271</v>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P22" t="s">
         <v>271</v>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" t="s">
         <v>271</v>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P26" t="s">
         <v>271</v>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P27" t="s">
         <v>271</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P28" t="s">
         <v>271</v>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P29" t="s">
         <v>271</v>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P32" t="s">
         <v>271</v>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P33" t="s">
         <v>271</v>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P34" t="s">
         <v>271</v>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P35" t="s">
         <v>271</v>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P36" t="s">
         <v>271</v>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P38" t="s">
         <v>271</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P39" t="s">
         <v>271</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P40" t="s">
         <v>271</v>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P42" t="s">
         <v>271</v>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P43" t="s">
         <v>271</v>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P45" t="s">
         <v>271</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P47" t="s">
         <v>271</v>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P48" t="s">
         <v>271</v>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P52" t="s">
         <v>271</v>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P53" t="s">
         <v>271</v>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P54" t="s">
         <v>271</v>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P55" t="s">
         <v>271</v>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P56" t="s">
         <v>271</v>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P57" t="s">
         <v>271</v>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P59" t="s">
         <v>271</v>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P62" t="s">
         <v>271</v>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P63" t="s">
         <v>271</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P64" t="s">
         <v>271</v>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P65" t="s">
         <v>271</v>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P66" t="s">
         <v>271</v>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O109" ca="1" si="2">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P67" t="s">
         <v>271</v>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P68" t="s">
         <v>271</v>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P69" t="s">
         <v>271</v>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="O75">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P75" t="s">
         <v>271</v>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="O77">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P77" t="s">
         <v>271</v>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="O78">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P78" t="s">
         <v>271</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="O79">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P79" t="s">
         <v>271</v>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="O80">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P80" t="s">
         <v>271</v>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="O83">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P83" t="s">
         <v>271</v>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="O84">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P84" t="s">
         <v>271</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="O85">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P85" t="s">
         <v>271</v>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="O87">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P87" t="s">
         <v>271</v>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="O88">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P88" t="s">
         <v>271</v>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="O89">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P89" t="s">
         <v>271</v>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="O91">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P91" t="s">
         <v>271</v>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="O92">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P92" t="s">
         <v>271</v>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="O93">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P93" t="s">
         <v>271</v>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="O94">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P94" t="s">
         <v>271</v>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="O95">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P95" t="s">
         <v>271</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="O96">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P96" t="s">
         <v>271</v>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="O100">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P100" t="s">
         <v>271</v>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="O103">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P103" t="s">
         <v>271</v>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="O104">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P104" t="s">
         <v>271</v>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="O105">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P105" t="s">
         <v>271</v>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="O107">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P107" t="s">
         <v>271</v>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="O108">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P108" t="s">
         <v>271</v>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="O109">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P109" t="s">
         <v>271</v>
@@ -6524,6 +6524,99 @@
     <sortCondition ref="K2:K109"/>
   </sortState>
   <mergeCells count="108">
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H13:J13"/>
@@ -6539,99 +6632,6 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="H109:J109"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="H106:J106"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
